--- a/bin/sheets/main_db/active_players/odi/ActivePlayers_SRL.xlsx
+++ b/bin/sheets/main_db/active_players/odi/ActivePlayers_SRL.xlsx
@@ -460,7 +460,7 @@
         <v>6032</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +538,7 @@
         <v>4472</v>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>4696</v>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -616,7 +616,7 @@
         <v>7118</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -707,7 +707,7 @@
         <v>4847</v>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -733,7 +733,7 @@
         <v>4599</v>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -811,7 +811,7 @@
         <v>3628</v>
       </c>
       <c r="C29" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>4485</v>
       </c>
       <c r="C30" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -863,7 +863,7 @@
         <v>5951</v>
       </c>
       <c r="C33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
@@ -941,7 +941,7 @@
         <v>4531</v>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -980,7 +980,7 @@
         <v>4476</v>
       </c>
       <c r="C42" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">

--- a/bin/sheets/main_db/active_players/odi/ActivePlayers_SRL.xlsx
+++ b/bin/sheets/main_db/active_players/odi/ActivePlayers_SRL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Active Players" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Active Players" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
